--- a/Code/Results/Cases/Case_0_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9859571854207633</v>
+        <v>1.036628954199312</v>
       </c>
       <c r="D2">
-        <v>1.000903047428407</v>
+        <v>1.046688860746184</v>
       </c>
       <c r="E2">
-        <v>1.001664340249653</v>
+        <v>1.045267709502108</v>
       </c>
       <c r="F2">
-        <v>1.007437412874793</v>
+        <v>1.055682049324105</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>1.008566183719682</v>
+        <v>1.041736231222189</v>
       </c>
       <c r="K2">
-        <v>1.012349815686814</v>
+        <v>1.049453594503636</v>
       </c>
       <c r="L2">
-        <v>1.01310053676624</v>
+        <v>1.048036428021583</v>
       </c>
       <c r="M2">
-        <v>1.018794096108856</v>
+        <v>1.058421836660962</v>
       </c>
       <c r="N2">
-        <v>1.006047497952996</v>
+        <v>1.017722173393022</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9917264772155142</v>
+        <v>1.037852269132868</v>
       </c>
       <c r="D3">
-        <v>1.006113355533829</v>
+        <v>1.047854453719565</v>
       </c>
       <c r="E3">
-        <v>1.006622252648524</v>
+        <v>1.04637501958242</v>
       </c>
       <c r="F3">
-        <v>1.01292371268354</v>
+        <v>1.056917394539847</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>1.012445256343159</v>
+        <v>1.042602211564488</v>
       </c>
       <c r="K3">
-        <v>1.016668607889359</v>
+        <v>1.050429961693895</v>
       </c>
       <c r="L3">
-        <v>1.017171095972883</v>
+        <v>1.048954373455116</v>
       </c>
       <c r="M3">
-        <v>1.023393860179625</v>
+        <v>1.059469596166919</v>
       </c>
       <c r="N3">
-        <v>1.007429004458783</v>
+        <v>1.01802112361675</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9953740602754548</v>
+        <v>1.038644269418575</v>
       </c>
       <c r="D4">
-        <v>1.00941418084898</v>
+        <v>1.048609449522055</v>
       </c>
       <c r="E4">
-        <v>1.009763446532433</v>
+        <v>1.047092223342602</v>
       </c>
       <c r="F4">
-        <v>1.016400236809452</v>
+        <v>1.057717696286038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>1.014896842880448</v>
+        <v>1.043162496199084</v>
       </c>
       <c r="K4">
-        <v>1.019400297470971</v>
+        <v>1.05106193894649</v>
       </c>
       <c r="L4">
-        <v>1.019745446405678</v>
+        <v>1.049548456834881</v>
       </c>
       <c r="M4">
-        <v>1.026304674334835</v>
+        <v>1.060147951975863</v>
       </c>
       <c r="N4">
-        <v>1.008300696921321</v>
+        <v>1.018214255462612</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9968879653886412</v>
+        <v>1.038977331835797</v>
       </c>
       <c r="D5">
-        <v>1.010785704921944</v>
+        <v>1.04892703728818</v>
       </c>
       <c r="E5">
-        <v>1.011068694643527</v>
+        <v>1.047393904225828</v>
       </c>
       <c r="F5">
-        <v>1.017844974338263</v>
+        <v>1.058054371844493</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>1.015914087709586</v>
+        <v>1.043398025695272</v>
       </c>
       <c r="K5">
-        <v>1.020534295686545</v>
+        <v>1.051327671522842</v>
       </c>
       <c r="L5">
-        <v>1.020814043983858</v>
+        <v>1.049798236911992</v>
       </c>
       <c r="M5">
-        <v>1.027513370002644</v>
+        <v>1.060433225944289</v>
       </c>
       <c r="N5">
-        <v>1.008662031740134</v>
+        <v>1.018295374207536</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9971410371414459</v>
+        <v>1.039033260716112</v>
       </c>
       <c r="D6">
-        <v>1.011015064378226</v>
+        <v>1.048980372697275</v>
       </c>
       <c r="E6">
-        <v>1.011286973555792</v>
+        <v>1.047444567673857</v>
       </c>
       <c r="F6">
-        <v>1.018086589656905</v>
+        <v>1.05811091459519</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.016084118074932</v>
+        <v>1.043437571327151</v>
       </c>
       <c r="K6">
-        <v>1.020723872311692</v>
+        <v>1.051372292110849</v>
       </c>
       <c r="L6">
-        <v>1.020992682068091</v>
+        <v>1.049840177716919</v>
       </c>
       <c r="M6">
-        <v>1.027715454094369</v>
+        <v>1.060481130190603</v>
       </c>
       <c r="N6">
-        <v>1.008722406470864</v>
+        <v>1.018308990071483</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9953943647257756</v>
+        <v>1.038648719398269</v>
       </c>
       <c r="D7">
-        <v>1.00943256968332</v>
+        <v>1.04861369240722</v>
       </c>
       <c r="E7">
-        <v>1.009780946573337</v>
+        <v>1.047096253754515</v>
       </c>
       <c r="F7">
-        <v>1.016419606428959</v>
+        <v>1.05772219406131</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>1.014910487266829</v>
+        <v>1.043165643410378</v>
       </c>
       <c r="K7">
-        <v>1.019415505785277</v>
+        <v>1.051065489483198</v>
       </c>
       <c r="L7">
-        <v>1.019759777960098</v>
+        <v>1.049551794299763</v>
       </c>
       <c r="M7">
-        <v>1.026320883097532</v>
+        <v>1.06015176345326</v>
       </c>
       <c r="N7">
-        <v>1.008305544977752</v>
+        <v>1.018215339665466</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9879252392251645</v>
+        <v>1.03704229040196</v>
       </c>
       <c r="D8">
-        <v>1.002678982912955</v>
+        <v>1.047082617601185</v>
       </c>
       <c r="E8">
-        <v>1.003354183643232</v>
+        <v>1.045641785660281</v>
       </c>
       <c r="F8">
-        <v>1.009307243952169</v>
+        <v>1.056099343807887</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>1.009889598419341</v>
+        <v>1.042028906772423</v>
       </c>
       <c r="K8">
-        <v>1.013822787547861</v>
+        <v>1.049783520992138</v>
       </c>
       <c r="L8">
-        <v>1.014488911267899</v>
+        <v>1.048346629399699</v>
       </c>
       <c r="M8">
-        <v>1.020362601497533</v>
+        <v>1.058775852663359</v>
       </c>
       <c r="N8">
-        <v>1.006519111758317</v>
+        <v>1.017823269035325</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.97406312768143</v>
+        <v>1.03421480480665</v>
       </c>
       <c r="D9">
-        <v>0.9902010561133809</v>
+        <v>1.04439059172736</v>
       </c>
       <c r="E9">
-        <v>0.9914827813515674</v>
+        <v>1.043084152173089</v>
       </c>
       <c r="F9">
-        <v>0.9961730383978338</v>
+        <v>1.053246907630094</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>1.000566244444644</v>
+        <v>1.040025316128711</v>
       </c>
       <c r="K9">
-        <v>1.003455140508518</v>
+        <v>1.047526039081714</v>
       </c>
       <c r="L9">
-        <v>1.00471557270721</v>
+        <v>1.046223792402088</v>
       </c>
       <c r="M9">
-        <v>1.009328512042521</v>
+        <v>1.056354231511486</v>
       </c>
       <c r="N9">
-        <v>1.00319130368834</v>
+        <v>1.017130020759942</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9642814539917017</v>
+        <v>1.032331892453018</v>
       </c>
       <c r="D10">
-        <v>0.9814387667513221</v>
+        <v>1.042599826516326</v>
       </c>
       <c r="E10">
-        <v>0.983149087813224</v>
+        <v>1.041382589948672</v>
       </c>
       <c r="F10">
-        <v>0.9869540625096515</v>
+        <v>1.051350076752665</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9939875716571321</v>
+        <v>1.038689189921879</v>
       </c>
       <c r="K10">
-        <v>0.9961514367784954</v>
+        <v>1.046022009237241</v>
       </c>
       <c r="L10">
-        <v>0.9978294051513322</v>
+        <v>1.044809066756409</v>
       </c>
       <c r="M10">
-        <v>1.001562929327139</v>
+        <v>1.054741713125958</v>
       </c>
       <c r="N10">
-        <v>1.00083723946929</v>
+        <v>1.016666255919269</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.959900400244</v>
+        <v>1.031517039518686</v>
       </c>
       <c r="D11">
-        <v>0.9775255111936517</v>
+        <v>1.041825319973305</v>
       </c>
       <c r="E11">
-        <v>0.9794280912546008</v>
+        <v>1.040646618621679</v>
       </c>
       <c r="F11">
-        <v>0.9828377659632591</v>
+        <v>1.050529848675586</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9910420463399905</v>
+        <v>1.038110525614089</v>
       </c>
       <c r="K11">
-        <v>0.9928840847783831</v>
+        <v>1.045370961591956</v>
       </c>
       <c r="L11">
-        <v>0.9947486787106992</v>
+        <v>1.044196581433664</v>
       </c>
       <c r="M11">
-        <v>0.9980907604955706</v>
+        <v>1.054043910430266</v>
       </c>
       <c r="N11">
-        <v>0.999782120095055</v>
+        <v>1.016465059624069</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9582495753261933</v>
+        <v>1.03121443390717</v>
       </c>
       <c r="D12">
-        <v>0.9760527478367886</v>
+        <v>1.04153776860148</v>
       </c>
       <c r="E12">
-        <v>0.9780278319030259</v>
+        <v>1.040373367580796</v>
       </c>
       <c r="F12">
-        <v>0.9812887186199959</v>
+        <v>1.050225345062095</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9899323690341102</v>
+        <v>1.037895565842224</v>
       </c>
       <c r="K12">
-        <v>0.9916535842818663</v>
+        <v>1.045129163409233</v>
       </c>
       <c r="L12">
-        <v>0.9935884479873516</v>
+        <v>1.043969091071769</v>
       </c>
       <c r="M12">
-        <v>0.9967833968129494</v>
+        <v>1.05378477851091</v>
       </c>
       <c r="N12">
-        <v>0.9993844802315565</v>
+        <v>1.016390268627862</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9586047747119774</v>
+        <v>1.031279340838263</v>
       </c>
       <c r="D13">
-        <v>0.9763695520420017</v>
+        <v>1.041599443266807</v>
       </c>
       <c r="E13">
-        <v>0.9783290329022658</v>
+        <v>1.040431975378179</v>
       </c>
       <c r="F13">
-        <v>0.9816219263684262</v>
+        <v>1.050290654650192</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9901711209079945</v>
+        <v>1.037941676279388</v>
       </c>
       <c r="K13">
-        <v>0.9919183128451468</v>
+        <v>1.045181028606874</v>
       </c>
       <c r="L13">
-        <v>0.9938380592654601</v>
+        <v>1.044017887912623</v>
       </c>
       <c r="M13">
-        <v>0.9970646493564685</v>
+        <v>1.053840360353852</v>
       </c>
       <c r="N13">
-        <v>0.9994700401191751</v>
+        <v>1.016406314165964</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9597644321293987</v>
+        <v>1.031492024689017</v>
       </c>
       <c r="D14">
-        <v>0.977404171912502</v>
+        <v>1.041801548144333</v>
       </c>
       <c r="E14">
-        <v>0.9793127223935961</v>
+        <v>1.040624029134006</v>
       </c>
       <c r="F14">
-        <v>0.9827101391107623</v>
+        <v>1.05050467494197</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9909506440775399</v>
+        <v>1.0380927573477</v>
       </c>
       <c r="K14">
-        <v>0.9927827219930633</v>
+        <v>1.045350973875879</v>
       </c>
       <c r="L14">
-        <v>0.9946531046462486</v>
+        <v>1.044177776730993</v>
       </c>
       <c r="M14">
-        <v>0.9979830605628311</v>
+        <v>1.054022489225798</v>
       </c>
       <c r="N14">
-        <v>0.9997493698804508</v>
+        <v>1.016458878555808</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9604757686729696</v>
+        <v>1.031623075049671</v>
       </c>
       <c r="D15">
-        <v>0.9780390491676344</v>
+        <v>1.041926089456927</v>
       </c>
       <c r="E15">
-        <v>0.9799163670304153</v>
+        <v>1.04074237585382</v>
       </c>
       <c r="F15">
-        <v>0.9833779197961404</v>
+        <v>1.050636561808611</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9914288377361852</v>
+        <v>1.038185840950287</v>
       </c>
       <c r="K15">
-        <v>0.9933130436865257</v>
+        <v>1.045455686690419</v>
       </c>
       <c r="L15">
-        <v>0.9951531397100586</v>
+        <v>1.044276291325722</v>
       </c>
       <c r="M15">
-        <v>0.9985465487585591</v>
+        <v>1.054134713153811</v>
       </c>
       <c r="N15">
-        <v>0.9999207051736189</v>
+        <v>1.016491257555439</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9645690073545651</v>
+        <v>1.03238598107879</v>
       </c>
       <c r="D16">
-        <v>0.9816958578116338</v>
+        <v>1.042651246949498</v>
       </c>
       <c r="E16">
-        <v>0.9833935671858423</v>
+        <v>1.041431451041526</v>
       </c>
       <c r="F16">
-        <v>0.9872245113635505</v>
+        <v>1.051404535895209</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9941809298411864</v>
+        <v>1.038727591492256</v>
       </c>
       <c r="K16">
-        <v>0.9963659792762052</v>
+        <v>1.046065221385821</v>
       </c>
       <c r="L16">
-        <v>0.9980316908126468</v>
+        <v>1.044849717407741</v>
       </c>
       <c r="M16">
-        <v>1.001790958211267</v>
+        <v>1.05478803290842</v>
       </c>
       <c r="N16">
-        <v>1.00090648149293</v>
+        <v>1.016679600568474</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9670965149969143</v>
+        <v>1.032864653661016</v>
       </c>
       <c r="D17">
-        <v>0.9839568971236033</v>
+        <v>1.043106360846578</v>
       </c>
       <c r="E17">
-        <v>0.9855437889601492</v>
+        <v>1.0418639074348</v>
       </c>
       <c r="F17">
-        <v>0.9896031318335519</v>
+        <v>1.051886562472492</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9958806080044073</v>
+        <v>1.039067386284309</v>
       </c>
       <c r="K17">
-        <v>0.9982521914947076</v>
+        <v>1.046447621001325</v>
       </c>
       <c r="L17">
-        <v>0.9998101263129884</v>
+        <v>1.045209438493404</v>
       </c>
       <c r="M17">
-        <v>1.003795945099813</v>
+        <v>1.055197956913118</v>
       </c>
       <c r="N17">
-        <v>1.001515016869637</v>
+        <v>1.016797640479036</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9685568453945346</v>
+        <v>1.033143899860674</v>
       </c>
       <c r="D18">
-        <v>0.985264323678925</v>
+        <v>1.043371908650836</v>
       </c>
       <c r="E18">
-        <v>0.9867872151124047</v>
+        <v>1.042116230777755</v>
       </c>
       <c r="F18">
-        <v>0.9909786359054291</v>
+        <v>1.052167827833087</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9968627240159229</v>
+        <v>1.039265572027013</v>
       </c>
       <c r="K18">
-        <v>0.9993423560930127</v>
+        <v>1.046670688303307</v>
       </c>
       <c r="L18">
-        <v>1.000837983770254</v>
+        <v>1.045419267461296</v>
       </c>
       <c r="M18">
-        <v>1.004954928268422</v>
+        <v>1.055437100072872</v>
       </c>
       <c r="N18">
-        <v>1.001866536506444</v>
+        <v>1.016866454215009</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9690524662787693</v>
+        <v>1.033239123224477</v>
       </c>
       <c r="D19">
-        <v>0.9857082265996855</v>
+        <v>1.043462468483621</v>
       </c>
       <c r="E19">
-        <v>0.9872094011722012</v>
+        <v>1.042202279925504</v>
       </c>
       <c r="F19">
-        <v>0.991445667775148</v>
+        <v>1.052263750316043</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9971960559450994</v>
+        <v>1.039333146443852</v>
       </c>
       <c r="K19">
-        <v>0.9997124048134717</v>
+        <v>1.046746751930743</v>
       </c>
       <c r="L19">
-        <v>1.001186879774951</v>
+        <v>1.045490815402608</v>
       </c>
       <c r="M19">
-        <v>1.005348365964754</v>
+        <v>1.055518648775102</v>
       </c>
       <c r="N19">
-        <v>1.00198582397336</v>
+        <v>1.01688991165924</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9668267887457472</v>
+        <v>1.03281329202847</v>
       </c>
       <c r="D20">
-        <v>0.9837154971715639</v>
+        <v>1.043057522385883</v>
       </c>
       <c r="E20">
-        <v>0.9853142121257833</v>
+        <v>1.041817500810577</v>
       </c>
       <c r="F20">
-        <v>0.9893491693184401</v>
+        <v>1.051834834484117</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030192</v>
       </c>
       <c r="J20">
-        <v>0.9956992152910286</v>
+        <v>1.039030930646089</v>
       </c>
       <c r="K20">
-        <v>0.9980508640682303</v>
+        <v>1.046406591074809</v>
       </c>
       <c r="L20">
-        <v>0.9996203041706124</v>
+        <v>1.045170842826137</v>
       </c>
       <c r="M20">
-        <v>1.003581922349014</v>
+        <v>1.055153971672586</v>
       </c>
       <c r="N20">
-        <v>1.001450083818955</v>
+        <v>1.016784979736949</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9594236048082879</v>
+        <v>1.031429392762253</v>
       </c>
       <c r="D21">
-        <v>0.9771000434510569</v>
+        <v>1.041742029583851</v>
       </c>
       <c r="E21">
-        <v>0.9790235608086997</v>
+        <v>1.040567470745678</v>
       </c>
       <c r="F21">
-        <v>0.9823902533753277</v>
+        <v>1.050441646740461</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9907215326146326</v>
+        <v>1.038048268246915</v>
       </c>
       <c r="K21">
-        <v>0.9925286499588013</v>
+        <v>1.045300928414387</v>
       </c>
       <c r="L21">
-        <v>0.9944135422004101</v>
+        <v>1.044130693082613</v>
       </c>
       <c r="M21">
-        <v>0.9977131084577313</v>
+        <v>1.053968855081731</v>
       </c>
       <c r="N21">
-        <v>0.9996672750940495</v>
+        <v>1.016443401248346</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9546319947057064</v>
+        <v>1.030559667238218</v>
       </c>
       <c r="D22">
-        <v>0.9728287848172897</v>
+        <v>1.040915706534486</v>
       </c>
       <c r="E22">
-        <v>0.9749628774801505</v>
+        <v>1.039782229494365</v>
       </c>
       <c r="F22">
-        <v>0.9778979989122054</v>
+        <v>1.049566651776141</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9875011601899453</v>
+        <v>1.037430324215212</v>
       </c>
       <c r="K22">
-        <v>0.9889584339679538</v>
+        <v>1.044605926805362</v>
       </c>
       <c r="L22">
-        <v>0.9910471940110934</v>
+        <v>1.043476789869256</v>
       </c>
       <c r="M22">
-        <v>0.9939203947815647</v>
+        <v>1.053224089518595</v>
       </c>
       <c r="N22">
-        <v>0.9985130548024996</v>
+        <v>1.0162283031738</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9571856888711506</v>
+        <v>1.031020689237429</v>
       </c>
       <c r="D23">
-        <v>0.9751041326876458</v>
+        <v>1.041353682586395</v>
       </c>
       <c r="E23">
-        <v>0.9771259609554278</v>
+        <v>1.040198434561876</v>
       </c>
       <c r="F23">
-        <v>0.9802910045720694</v>
+        <v>1.050030412899814</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288725</v>
       </c>
       <c r="J23">
-        <v>0.9892173037934844</v>
+        <v>1.037757918384761</v>
       </c>
       <c r="K23">
-        <v>0.9908607799457015</v>
+        <v>1.044974344377577</v>
       </c>
       <c r="L23">
-        <v>0.9928409153339931</v>
+        <v>1.04382342909795</v>
       </c>
       <c r="M23">
-        <v>0.9959411466265901</v>
+        <v>1.053618869736779</v>
       </c>
       <c r="N23">
-        <v>0.9991282085222171</v>
+        <v>1.016342362465158</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.966948709330341</v>
+        <v>1.032836500001689</v>
       </c>
       <c r="D24">
-        <v>0.9838246105502026</v>
+        <v>1.043079590113597</v>
       </c>
       <c r="E24">
-        <v>0.9854179811826235</v>
+        <v>1.041838469723029</v>
       </c>
       <c r="F24">
-        <v>0.9894639607358032</v>
+        <v>1.051858207803694</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9957812074454976</v>
+        <v>1.039047403413279</v>
       </c>
       <c r="K24">
-        <v>0.9981418661830359</v>
+        <v>1.046425130670559</v>
       </c>
       <c r="L24">
-        <v>0.9997061058262602</v>
+        <v>1.045188282516837</v>
       </c>
       <c r="M24">
-        <v>1.003678662353604</v>
+        <v>1.055173846581578</v>
       </c>
       <c r="N24">
-        <v>1.001479434840106</v>
+        <v>1.016790700695544</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9777366038481027</v>
+        <v>1.034945403633324</v>
       </c>
       <c r="D25">
-        <v>0.9935007451830187</v>
+        <v>1.045085849569942</v>
       </c>
       <c r="E25">
-        <v>0.9946216839061349</v>
+        <v>1.043744736204954</v>
       </c>
       <c r="F25">
-        <v>0.9996455357390301</v>
+        <v>1.053983480794767</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>1.003037172991365</v>
+        <v>1.040543358842241</v>
       </c>
       <c r="K25">
-        <v>1.006200798583148</v>
+        <v>1.048109479202824</v>
       </c>
       <c r="L25">
-        <v>1.007304069037406</v>
+        <v>1.046772504994014</v>
       </c>
       <c r="M25">
-        <v>1.012249356801822</v>
+        <v>1.05697994007606</v>
       </c>
       <c r="N25">
-        <v>1.004074366034915</v>
+        <v>1.017309523504505</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036628954199312</v>
+        <v>0.9859571854207643</v>
       </c>
       <c r="D2">
-        <v>1.046688860746184</v>
+        <v>1.000903047428408</v>
       </c>
       <c r="E2">
-        <v>1.045267709502108</v>
+        <v>1.001664340249654</v>
       </c>
       <c r="F2">
-        <v>1.055682049324105</v>
+        <v>1.007437412874794</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.041736231222189</v>
+        <v>1.008566183719682</v>
       </c>
       <c r="K2">
-        <v>1.049453594503636</v>
+        <v>1.012349815686816</v>
       </c>
       <c r="L2">
-        <v>1.048036428021583</v>
+        <v>1.01310053676624</v>
       </c>
       <c r="M2">
-        <v>1.058421836660962</v>
+        <v>1.018794096108856</v>
       </c>
       <c r="N2">
-        <v>1.017722173393022</v>
+        <v>1.006047497952996</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037852269132868</v>
+        <v>0.9917264772155139</v>
       </c>
       <c r="D3">
-        <v>1.047854453719565</v>
+        <v>1.006113355533828</v>
       </c>
       <c r="E3">
-        <v>1.04637501958242</v>
+        <v>1.006622252648523</v>
       </c>
       <c r="F3">
-        <v>1.056917394539847</v>
+        <v>1.01292371268354</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.042602211564488</v>
+        <v>1.012445256343159</v>
       </c>
       <c r="K3">
-        <v>1.050429961693895</v>
+        <v>1.016668607889358</v>
       </c>
       <c r="L3">
-        <v>1.048954373455116</v>
+        <v>1.017171095972882</v>
       </c>
       <c r="M3">
-        <v>1.059469596166919</v>
+        <v>1.023393860179624</v>
       </c>
       <c r="N3">
-        <v>1.01802112361675</v>
+        <v>1.007429004458783</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038644269418575</v>
+        <v>0.9953740602754562</v>
       </c>
       <c r="D4">
-        <v>1.048609449522055</v>
+        <v>1.009414180848981</v>
       </c>
       <c r="E4">
-        <v>1.047092223342602</v>
+        <v>1.009763446532434</v>
       </c>
       <c r="F4">
-        <v>1.057717696286038</v>
+        <v>1.016400236809453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.043162496199084</v>
+        <v>1.014896842880449</v>
       </c>
       <c r="K4">
-        <v>1.05106193894649</v>
+        <v>1.019400297470973</v>
       </c>
       <c r="L4">
-        <v>1.049548456834881</v>
+        <v>1.019745446405679</v>
       </c>
       <c r="M4">
-        <v>1.060147951975863</v>
+        <v>1.026304674334836</v>
       </c>
       <c r="N4">
-        <v>1.018214255462612</v>
+        <v>1.008300696921322</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038977331835797</v>
+        <v>0.9968879653886409</v>
       </c>
       <c r="D5">
-        <v>1.04892703728818</v>
+        <v>1.010785704921944</v>
       </c>
       <c r="E5">
-        <v>1.047393904225828</v>
+        <v>1.011068694643527</v>
       </c>
       <c r="F5">
-        <v>1.058054371844493</v>
+        <v>1.017844974338262</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.043398025695272</v>
+        <v>1.015914087709585</v>
       </c>
       <c r="K5">
-        <v>1.051327671522842</v>
+        <v>1.020534295686545</v>
       </c>
       <c r="L5">
-        <v>1.049798236911992</v>
+        <v>1.020814043983858</v>
       </c>
       <c r="M5">
-        <v>1.060433225944289</v>
+        <v>1.027513370002644</v>
       </c>
       <c r="N5">
-        <v>1.018295374207536</v>
+        <v>1.008662031740134</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039033260716112</v>
+        <v>0.9971410371414469</v>
       </c>
       <c r="D6">
-        <v>1.048980372697275</v>
+        <v>1.011015064378227</v>
       </c>
       <c r="E6">
-        <v>1.047444567673857</v>
+        <v>1.011286973555793</v>
       </c>
       <c r="F6">
-        <v>1.05811091459519</v>
+        <v>1.018086589656906</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.043437571327151</v>
+        <v>1.016084118074933</v>
       </c>
       <c r="K6">
-        <v>1.051372292110849</v>
+        <v>1.020723872311694</v>
       </c>
       <c r="L6">
-        <v>1.049840177716919</v>
+        <v>1.020992682068092</v>
       </c>
       <c r="M6">
-        <v>1.060481130190603</v>
+        <v>1.02771545409437</v>
       </c>
       <c r="N6">
-        <v>1.018308990071483</v>
+        <v>1.008722406470865</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038648719398269</v>
+        <v>0.9953943647257757</v>
       </c>
       <c r="D7">
-        <v>1.04861369240722</v>
+        <v>1.00943256968332</v>
       </c>
       <c r="E7">
-        <v>1.047096253754515</v>
+        <v>1.009780946573337</v>
       </c>
       <c r="F7">
-        <v>1.05772219406131</v>
+        <v>1.016419606428959</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.043165643410378</v>
+        <v>1.014910487266829</v>
       </c>
       <c r="K7">
-        <v>1.051065489483198</v>
+        <v>1.019415505785277</v>
       </c>
       <c r="L7">
-        <v>1.049551794299763</v>
+        <v>1.019759777960098</v>
       </c>
       <c r="M7">
-        <v>1.06015176345326</v>
+        <v>1.026320883097532</v>
       </c>
       <c r="N7">
-        <v>1.018215339665466</v>
+        <v>1.008305544977752</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03704229040196</v>
+        <v>0.9879252392251645</v>
       </c>
       <c r="D8">
-        <v>1.047082617601185</v>
+        <v>1.002678982912955</v>
       </c>
       <c r="E8">
-        <v>1.045641785660281</v>
+        <v>1.003354183643232</v>
       </c>
       <c r="F8">
-        <v>1.056099343807887</v>
+        <v>1.009307243952169</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.042028906772423</v>
+        <v>1.009889598419341</v>
       </c>
       <c r="K8">
-        <v>1.049783520992138</v>
+        <v>1.013822787547861</v>
       </c>
       <c r="L8">
-        <v>1.048346629399699</v>
+        <v>1.014488911267899</v>
       </c>
       <c r="M8">
-        <v>1.058775852663359</v>
+        <v>1.020362601497533</v>
       </c>
       <c r="N8">
-        <v>1.017823269035325</v>
+        <v>1.006519111758317</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03421480480665</v>
+        <v>0.9740631276814298</v>
       </c>
       <c r="D9">
-        <v>1.04439059172736</v>
+        <v>0.9902010561133806</v>
       </c>
       <c r="E9">
-        <v>1.043084152173089</v>
+        <v>0.991482781351567</v>
       </c>
       <c r="F9">
-        <v>1.053246907630094</v>
+        <v>0.9961730383978331</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.040025316128711</v>
+        <v>1.000566244444643</v>
       </c>
       <c r="K9">
-        <v>1.047526039081714</v>
+        <v>1.003455140508518</v>
       </c>
       <c r="L9">
-        <v>1.046223792402088</v>
+        <v>1.00471557270721</v>
       </c>
       <c r="M9">
-        <v>1.056354231511486</v>
+        <v>1.00932851204252</v>
       </c>
       <c r="N9">
-        <v>1.017130020759942</v>
+        <v>1.00319130368834</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032331892453018</v>
+        <v>0.9642814539917037</v>
       </c>
       <c r="D10">
-        <v>1.042599826516326</v>
+        <v>0.9814387667513245</v>
       </c>
       <c r="E10">
-        <v>1.041382589948672</v>
+        <v>0.9831490878132261</v>
       </c>
       <c r="F10">
-        <v>1.051350076752665</v>
+        <v>0.9869540625096537</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.038689189921879</v>
+        <v>0.9939875716571343</v>
       </c>
       <c r="K10">
-        <v>1.046022009237241</v>
+        <v>0.9961514367784976</v>
       </c>
       <c r="L10">
-        <v>1.044809066756409</v>
+        <v>0.9978294051513342</v>
       </c>
       <c r="M10">
-        <v>1.054741713125958</v>
+        <v>1.001562929327141</v>
       </c>
       <c r="N10">
-        <v>1.016666255919269</v>
+        <v>1.000837239469291</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031517039518686</v>
+        <v>0.9599004002439996</v>
       </c>
       <c r="D11">
-        <v>1.041825319973305</v>
+        <v>0.9775255111936514</v>
       </c>
       <c r="E11">
-        <v>1.040646618621679</v>
+        <v>0.9794280912546003</v>
       </c>
       <c r="F11">
-        <v>1.050529848675586</v>
+        <v>0.9828377659632588</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.038110525614089</v>
+        <v>0.9910420463399902</v>
       </c>
       <c r="K11">
-        <v>1.045370961591956</v>
+        <v>0.9928840847783826</v>
       </c>
       <c r="L11">
-        <v>1.044196581433664</v>
+        <v>0.9947486787106987</v>
       </c>
       <c r="M11">
-        <v>1.054043910430266</v>
+        <v>0.9980907604955702</v>
       </c>
       <c r="N11">
-        <v>1.016465059624069</v>
+        <v>0.9997821200950547</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03121443390717</v>
+        <v>0.9582495753261946</v>
       </c>
       <c r="D12">
-        <v>1.04153776860148</v>
+        <v>0.9760527478367899</v>
       </c>
       <c r="E12">
-        <v>1.040373367580796</v>
+        <v>0.9780278319030271</v>
       </c>
       <c r="F12">
-        <v>1.050225345062095</v>
+        <v>0.9812887186199973</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.037895565842224</v>
+        <v>0.9899323690341114</v>
       </c>
       <c r="K12">
-        <v>1.045129163409233</v>
+        <v>0.9916535842818678</v>
       </c>
       <c r="L12">
-        <v>1.043969091071769</v>
+        <v>0.9935884479873526</v>
       </c>
       <c r="M12">
-        <v>1.05378477851091</v>
+        <v>0.9967833968129505</v>
       </c>
       <c r="N12">
-        <v>1.016390268627862</v>
+        <v>0.999384480231557</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031279340838263</v>
+        <v>0.9586047747119774</v>
       </c>
       <c r="D13">
-        <v>1.041599443266807</v>
+        <v>0.9763695520420019</v>
       </c>
       <c r="E13">
-        <v>1.040431975378179</v>
+        <v>0.9783290329022658</v>
       </c>
       <c r="F13">
-        <v>1.050290654650192</v>
+        <v>0.981621926368426</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.037941676279388</v>
+        <v>0.9901711209079945</v>
       </c>
       <c r="K13">
-        <v>1.045181028606874</v>
+        <v>0.991918312845147</v>
       </c>
       <c r="L13">
-        <v>1.044017887912623</v>
+        <v>0.99383805926546</v>
       </c>
       <c r="M13">
-        <v>1.053840360353852</v>
+        <v>0.9970646493564685</v>
       </c>
       <c r="N13">
-        <v>1.016406314165964</v>
+        <v>0.9994700401191753</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031492024689017</v>
+        <v>0.9597644321293998</v>
       </c>
       <c r="D14">
-        <v>1.041801548144333</v>
+        <v>0.977404171912503</v>
       </c>
       <c r="E14">
-        <v>1.040624029134006</v>
+        <v>0.9793127223935971</v>
       </c>
       <c r="F14">
-        <v>1.05050467494197</v>
+        <v>0.9827101391107631</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.0380927573477</v>
+        <v>0.9909506440775407</v>
       </c>
       <c r="K14">
-        <v>1.045350973875879</v>
+        <v>0.9927827219930642</v>
       </c>
       <c r="L14">
-        <v>1.044177776730993</v>
+        <v>0.9946531046462495</v>
       </c>
       <c r="M14">
-        <v>1.054022489225798</v>
+        <v>0.997983060562832</v>
       </c>
       <c r="N14">
-        <v>1.016458878555808</v>
+        <v>0.9997493698804512</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031623075049671</v>
+        <v>0.9604757686729697</v>
       </c>
       <c r="D15">
-        <v>1.041926089456927</v>
+        <v>0.9780390491676345</v>
       </c>
       <c r="E15">
-        <v>1.04074237585382</v>
+        <v>0.9799163670304152</v>
       </c>
       <c r="F15">
-        <v>1.050636561808611</v>
+        <v>0.9833779197961402</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.038185840950287</v>
+        <v>0.9914288377361854</v>
       </c>
       <c r="K15">
-        <v>1.045455686690419</v>
+        <v>0.9933130436865258</v>
       </c>
       <c r="L15">
-        <v>1.044276291325722</v>
+        <v>0.9951531397100584</v>
       </c>
       <c r="M15">
-        <v>1.054134713153811</v>
+        <v>0.9985465487585591</v>
       </c>
       <c r="N15">
-        <v>1.016491257555439</v>
+        <v>0.999920705173619</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03238598107879</v>
+        <v>0.9645690073545659</v>
       </c>
       <c r="D16">
-        <v>1.042651246949498</v>
+        <v>0.981695857811635</v>
       </c>
       <c r="E16">
-        <v>1.041431451041526</v>
+        <v>0.983393567185843</v>
       </c>
       <c r="F16">
-        <v>1.051404535895209</v>
+        <v>0.9872245113635515</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.038727591492256</v>
+        <v>0.9941809298411874</v>
       </c>
       <c r="K16">
-        <v>1.046065221385821</v>
+        <v>0.9963659792762064</v>
       </c>
       <c r="L16">
-        <v>1.044849717407741</v>
+        <v>0.9980316908126475</v>
       </c>
       <c r="M16">
-        <v>1.05478803290842</v>
+        <v>1.001790958211268</v>
       </c>
       <c r="N16">
-        <v>1.016679600568474</v>
+        <v>1.000906481492931</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032864653661016</v>
+        <v>0.9670965149969151</v>
       </c>
       <c r="D17">
-        <v>1.043106360846578</v>
+        <v>0.9839568971236041</v>
       </c>
       <c r="E17">
-        <v>1.0418639074348</v>
+        <v>0.9855437889601499</v>
       </c>
       <c r="F17">
-        <v>1.051886562472492</v>
+        <v>0.9896031318335528</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.039067386284309</v>
+        <v>0.9958806080044081</v>
       </c>
       <c r="K17">
-        <v>1.046447621001325</v>
+        <v>0.9982521914947083</v>
       </c>
       <c r="L17">
-        <v>1.045209438493404</v>
+        <v>0.999810126312989</v>
       </c>
       <c r="M17">
-        <v>1.055197956913118</v>
+        <v>1.003795945099814</v>
       </c>
       <c r="N17">
-        <v>1.016797640479036</v>
+        <v>1.001515016869638</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033143899860674</v>
+        <v>0.968556845394536</v>
       </c>
       <c r="D18">
-        <v>1.043371908650836</v>
+        <v>0.9852643236789266</v>
       </c>
       <c r="E18">
-        <v>1.042116230777755</v>
+        <v>0.986787215112406</v>
       </c>
       <c r="F18">
-        <v>1.052167827833087</v>
+        <v>0.9909786359054302</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.039265572027013</v>
+        <v>0.9968627240159241</v>
       </c>
       <c r="K18">
-        <v>1.046670688303307</v>
+        <v>0.9993423560930141</v>
       </c>
       <c r="L18">
-        <v>1.045419267461296</v>
+        <v>1.000837983770255</v>
       </c>
       <c r="M18">
-        <v>1.055437100072872</v>
+        <v>1.004954928268423</v>
       </c>
       <c r="N18">
-        <v>1.016866454215009</v>
+        <v>1.001866536506444</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033239123224477</v>
+        <v>0.9690524662787697</v>
       </c>
       <c r="D19">
-        <v>1.043462468483621</v>
+        <v>0.9857082265996858</v>
       </c>
       <c r="E19">
-        <v>1.042202279925504</v>
+        <v>0.9872094011722019</v>
       </c>
       <c r="F19">
-        <v>1.052263750316043</v>
+        <v>0.9914456677751489</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.039333146443852</v>
+        <v>0.9971960559450999</v>
       </c>
       <c r="K19">
-        <v>1.046746751930743</v>
+        <v>0.9997124048134721</v>
       </c>
       <c r="L19">
-        <v>1.045490815402608</v>
+        <v>1.001186879774952</v>
       </c>
       <c r="M19">
-        <v>1.055518648775102</v>
+        <v>1.005348365964755</v>
       </c>
       <c r="N19">
-        <v>1.01688991165924</v>
+        <v>1.001985823973361</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03281329202847</v>
+        <v>0.9668267887457473</v>
       </c>
       <c r="D20">
-        <v>1.043057522385883</v>
+        <v>0.983715497171564</v>
       </c>
       <c r="E20">
-        <v>1.041817500810577</v>
+        <v>0.9853142121257833</v>
       </c>
       <c r="F20">
-        <v>1.051834834484117</v>
+        <v>0.9893491693184404</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030192</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.039030930646089</v>
+        <v>0.9956992152910287</v>
       </c>
       <c r="K20">
-        <v>1.046406591074809</v>
+        <v>0.9980508640682305</v>
       </c>
       <c r="L20">
-        <v>1.045170842826137</v>
+        <v>0.9996203041706125</v>
       </c>
       <c r="M20">
-        <v>1.055153971672586</v>
+        <v>1.003581922349014</v>
       </c>
       <c r="N20">
-        <v>1.016784979736949</v>
+        <v>1.001450083818955</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031429392762253</v>
+        <v>0.9594236048082883</v>
       </c>
       <c r="D21">
-        <v>1.041742029583851</v>
+        <v>0.9771000434510576</v>
       </c>
       <c r="E21">
-        <v>1.040567470745678</v>
+        <v>0.9790235608086999</v>
       </c>
       <c r="F21">
-        <v>1.050441646740461</v>
+        <v>0.9823902533753283</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.038048268246915</v>
+        <v>0.990721532614633</v>
       </c>
       <c r="K21">
-        <v>1.045300928414387</v>
+        <v>0.9925286499588019</v>
       </c>
       <c r="L21">
-        <v>1.044130693082613</v>
+        <v>0.9944135422004102</v>
       </c>
       <c r="M21">
-        <v>1.053968855081731</v>
+        <v>0.9977131084577318</v>
       </c>
       <c r="N21">
-        <v>1.016443401248346</v>
+        <v>0.9996672750940495</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030559667238218</v>
+        <v>0.9546319947057064</v>
       </c>
       <c r="D22">
-        <v>1.040915706534486</v>
+        <v>0.9728287848172898</v>
       </c>
       <c r="E22">
-        <v>1.039782229494365</v>
+        <v>0.9749628774801501</v>
       </c>
       <c r="F22">
-        <v>1.049566651776141</v>
+        <v>0.9778979989122057</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.037430324215212</v>
+        <v>0.9875011601899453</v>
       </c>
       <c r="K22">
-        <v>1.044605926805362</v>
+        <v>0.9889584339679539</v>
       </c>
       <c r="L22">
-        <v>1.043476789869256</v>
+        <v>0.9910471940110933</v>
       </c>
       <c r="M22">
-        <v>1.053224089518595</v>
+        <v>0.993920394781565</v>
       </c>
       <c r="N22">
-        <v>1.0162283031738</v>
+        <v>0.9985130548024997</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031020689237429</v>
+        <v>0.9571856888711506</v>
       </c>
       <c r="D23">
-        <v>1.041353682586395</v>
+        <v>0.975104132687646</v>
       </c>
       <c r="E23">
-        <v>1.040198434561876</v>
+        <v>0.9771259609554278</v>
       </c>
       <c r="F23">
-        <v>1.050030412899814</v>
+        <v>0.9802910045720695</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288725</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.037757918384761</v>
+        <v>0.9892173037934843</v>
       </c>
       <c r="K23">
-        <v>1.044974344377577</v>
+        <v>0.9908607799457017</v>
       </c>
       <c r="L23">
-        <v>1.04382342909795</v>
+        <v>0.992840915333993</v>
       </c>
       <c r="M23">
-        <v>1.053618869736779</v>
+        <v>0.9959411466265901</v>
       </c>
       <c r="N23">
-        <v>1.016342362465158</v>
+        <v>0.9991282085222172</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032836500001689</v>
+        <v>0.9669487093303394</v>
       </c>
       <c r="D24">
-        <v>1.043079590113597</v>
+        <v>0.9838246105502009</v>
       </c>
       <c r="E24">
-        <v>1.041838469723029</v>
+        <v>0.9854179811826217</v>
       </c>
       <c r="F24">
-        <v>1.051858207803694</v>
+        <v>0.9894639607358017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.039047403413279</v>
+        <v>0.9957812074454961</v>
       </c>
       <c r="K24">
-        <v>1.046425130670559</v>
+        <v>0.998141866183034</v>
       </c>
       <c r="L24">
-        <v>1.045188282516837</v>
+        <v>0.9997061058262584</v>
       </c>
       <c r="M24">
-        <v>1.055173846581578</v>
+        <v>1.003678662353602</v>
       </c>
       <c r="N24">
-        <v>1.016790700695544</v>
+        <v>1.001479434840105</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034945403633324</v>
+        <v>0.9777366038481021</v>
       </c>
       <c r="D25">
-        <v>1.045085849569942</v>
+        <v>0.9935007451830178</v>
       </c>
       <c r="E25">
-        <v>1.043744736204954</v>
+        <v>0.9946216839061345</v>
       </c>
       <c r="F25">
-        <v>1.053983480794767</v>
+        <v>0.9996455357390293</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.040543358842241</v>
+        <v>1.003037172991364</v>
       </c>
       <c r="K25">
-        <v>1.048109479202824</v>
+        <v>1.006200798583147</v>
       </c>
       <c r="L25">
-        <v>1.046772504994014</v>
+        <v>1.007304069037405</v>
       </c>
       <c r="M25">
-        <v>1.05697994007606</v>
+        <v>1.012249356801822</v>
       </c>
       <c r="N25">
-        <v>1.017309523504505</v>
+        <v>1.004074366034915</v>
       </c>
     </row>
   </sheetData>
